--- a/Bit collision/y_axis.xlsx
+++ b/Bit collision/y_axis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\SMILE_to_Feature\Bit collision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1D76609F-E1F7-4533-84F8-F1225E6F8285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AB546-7442-42E1-AA4F-13D9BA17EF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Check_SMART_in_bit_3mol 128bit" sheetId="7" r:id="rId1"/>
@@ -20,12 +20,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$2:$E$66</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -47,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Column1</t>
   </si>
@@ -123,11 +136,23 @@
   <si>
     <t>64 bit</t>
   </si>
+  <si>
+    <t>bit ที่ขึ้น 1</t>
+  </si>
+  <si>
+    <t>3ตัว 128 256+++</t>
+  </si>
+  <si>
+    <t>r=3</t>
+  </si>
+  <si>
+    <t>64-1024 bit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -1725,34 +1750,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C27" totalsRowShown="0">
-  <autoFilter ref="A1:C27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
     <sortCondition descending="1" ref="C1:C27"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="no. Bit"/>
-    <tableColumn id="3" name="Number Structure"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="no. Bit"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Number Structure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E66" totalsRowShown="0">
-  <autoFilter ref="A2:E66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A2:E66" totalsRowShown="0">
+  <autoFilter ref="A2:E66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E66">
     <sortCondition descending="1" ref="B3:B66"/>
     <sortCondition descending="1" ref="C3:C66"/>
     <sortCondition descending="1" ref="D3:D66"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="mol1"/>
-    <tableColumn id="3" name="mol2"/>
-    <tableColumn id="4" name="mol3"/>
-    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="mol1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="mol2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="mol3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2054,7 +2079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2383,7 +2408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2702,11 +2727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AR76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2719,7 +2744,7 @@
     <col min="39" max="39" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2733,7 +2758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="28.5">
+    <row r="3" spans="1:44" ht="28.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2785,8 +2810,14 @@
       <c r="Y3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AO3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2803,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:44">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2820,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:44">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2843,7 +2874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:44">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2872,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:44">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2894,6 +2925,9 @@
       <c r="L8">
         <v>28</v>
       </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -2905,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:44">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2935,7 +2969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:44">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2965,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:44">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2988,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:44">
       <c r="A12">
         <v>15</v>
       </c>
@@ -3011,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:44">
       <c r="A13">
         <v>17</v>
       </c>
@@ -3034,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:44">
       <c r="A14">
         <v>20</v>
       </c>
@@ -3057,7 +3091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:44">
       <c r="A15">
         <v>21</v>
       </c>
@@ -3083,7 +3117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:44">
       <c r="A16">
         <v>23</v>
       </c>
@@ -3465,6 +3499,9 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="34" spans="1:41">
       <c r="A34">
@@ -3481,6 +3518,9 @@
       </c>
       <c r="E34" t="b">
         <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4057,19 +4097,19 @@
     <sortCondition descending="1" ref="D2:D16385"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B3:D1048576 B2 D2">
+  <conditionalFormatting sqref="B2 D2 B3:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E16385">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",E3)))</formula>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>1</formula>
+  <conditionalFormatting sqref="E3:E16385">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
